--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H2">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>8.456241495342669</v>
+        <v>0.8282600232355557</v>
       </c>
       <c r="R2">
-        <v>76.106173458084</v>
+        <v>7.454340209120001</v>
       </c>
       <c r="S2">
-        <v>0.001857696931167898</v>
+        <v>0.0001761692467430039</v>
       </c>
       <c r="T2">
-        <v>0.001857696931167897</v>
+        <v>0.0001761692467430039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H3">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>663.831944135044</v>
+        <v>1167.511296860847</v>
       </c>
       <c r="R3">
-        <v>5974.487497215396</v>
+        <v>10507.60167174763</v>
       </c>
       <c r="S3">
-        <v>0.1458329408059222</v>
+        <v>0.2483273126335933</v>
       </c>
       <c r="T3">
-        <v>0.1458329408059222</v>
+        <v>0.2483273126335933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H4">
         <v>137.745872</v>
       </c>
       <c r="I4">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J4">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>26.86491412829156</v>
+        <v>1.251344721635556</v>
       </c>
       <c r="R4">
-        <v>241.784227154624</v>
+        <v>11.26210249472</v>
       </c>
       <c r="S4">
-        <v>0.005901779006631123</v>
+        <v>0.0002661585140439341</v>
       </c>
       <c r="T4">
-        <v>0.005901779006631121</v>
+        <v>0.000266158514043934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H5">
         <v>137.745872</v>
       </c>
       <c r="I5">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J5">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>2108.949724842517</v>
+        <v>1763.889428188917</v>
       </c>
       <c r="R5">
-        <v>18980.54752358266</v>
+        <v>15875.00485370026</v>
       </c>
       <c r="S5">
-        <v>0.4633015074114281</v>
+        <v>0.3751757457616842</v>
       </c>
       <c r="T5">
-        <v>0.4633015074114279</v>
+        <v>0.3751757457616842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H6">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I6">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J6">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>0.8629774148208892</v>
+        <v>0.06356771866666668</v>
       </c>
       <c r="R6">
-        <v>7.766796733388002</v>
+        <v>0.572109468</v>
       </c>
       <c r="S6">
-        <v>0.000189581919587197</v>
+        <v>1.352072634259323E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001895819195871969</v>
+        <v>1.352072634259323E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H7">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I7">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J7">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>67.74546059744135</v>
+        <v>89.60474679085</v>
       </c>
       <c r="R7">
-        <v>609.7091453769721</v>
+        <v>806.44272111765</v>
       </c>
       <c r="S7">
-        <v>0.01488256151645333</v>
+        <v>0.01905875003489363</v>
       </c>
       <c r="T7">
-        <v>0.01488256151645332</v>
+        <v>0.01905875003489363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.015061</v>
+        <v>43.657748</v>
       </c>
       <c r="H8">
-        <v>108.045183</v>
+        <v>130.973244</v>
       </c>
       <c r="I8">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J8">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N8">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q8">
-        <v>21.07231615093734</v>
+        <v>1.189819158826667</v>
       </c>
       <c r="R8">
-        <v>189.650845358436</v>
+        <v>10.70837242944</v>
       </c>
       <c r="S8">
-        <v>0.004629240670072625</v>
+        <v>0.0002530721501589071</v>
       </c>
       <c r="T8">
-        <v>0.004629240670072623</v>
+        <v>0.0002530721501589071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.015061</v>
+        <v>43.657748</v>
       </c>
       <c r="H9">
-        <v>108.045183</v>
+        <v>130.973244</v>
       </c>
       <c r="I9">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J9">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N9">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O9">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P9">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q9">
-        <v>1654.219147550276</v>
+        <v>1677.163294354168</v>
       </c>
       <c r="R9">
-        <v>14887.97232795249</v>
+        <v>15094.46964918751</v>
       </c>
       <c r="S9">
-        <v>0.3634046917387376</v>
+        <v>0.3567292709325404</v>
       </c>
       <c r="T9">
-        <v>0.3634046917387375</v>
+        <v>0.3567292709325404</v>
       </c>
     </row>
   </sheetData>
